--- a/result.xlsx
+++ b/result.xlsx
@@ -545,25 +545,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -572,34 +572,34 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
         <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -667,61 +667,61 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -771,25 +771,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -798,37 +798,37 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -884,82 +884,82 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -997,64 +997,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1110,25 +1110,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1137,52 +1137,52 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1206,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1223,34 +1223,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1259,43 +1259,43 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1336,82 +1336,82 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1423,25 +1423,25 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1449,79 +1449,79 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1542,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1562,64 +1562,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1628,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1646,28 +1646,28 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1675,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1684,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1702,49 +1702,49 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1788,13 +1788,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1815,85 +1815,85 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="n">
         <v>11</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1901,67 +1901,67 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1970,43 +1970,43 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2014,79 +2014,79 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2127,82 +2127,82 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2240,13 +2240,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2255,52 +2255,52 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -2353,67 +2353,67 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2466,25 +2466,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2493,40 +2493,40 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2550,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2579,82 +2579,82 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2675,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
         <v>10</v>
@@ -2692,67 +2692,67 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -2788,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2805,67 +2805,67 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2889,28 +2889,28 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2918,67 +2918,67 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3002,28 +3002,28 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -3031,67 +3031,67 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3130,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1708,19 +1708,19 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R12" t="n">
         <v>4</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1788,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1901,7 +1901,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
